--- a/input.xlsx
+++ b/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\thijs\dev\ocr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\thijs\dev\mariokaart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685FBFB8-235F-4FF5-828C-381A8C00CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9376C55C-8304-4DEB-87F9-CF4AFA2379B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,29 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Jens</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>Jan Ywe</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>marco</t>
   </si>
   <si>
-    <t>Frank</t>
-  </si>
-  <si>
     <t>nick</t>
   </si>
   <si>
@@ -59,6 +41,27 @@
   </si>
   <si>
     <t>rondes</t>
+  </si>
+  <si>
+    <t>blaasie</t>
+  </si>
+  <si>
+    <t>volkert</t>
+  </si>
+  <si>
+    <t>bas</t>
+  </si>
+  <si>
+    <t>bobby</t>
+  </si>
+  <si>
+    <t>wilco</t>
+  </si>
+  <si>
+    <t>sounder</t>
+  </si>
+  <si>
+    <t>menno</t>
   </si>
   <si>
     <t>marc</t>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,21 +428,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -447,82 +450,90 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>34</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
